--- a/用例步骤.xlsx
+++ b/用例步骤.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>基础查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,82 @@
   </si>
   <si>
     <t>进价统一无参照，售价全国区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增、删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化关联、查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关联、查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增、删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性模板分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增、删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化，关联属性、查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -454,88 +530,181 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="C11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="C12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>

--- a/用例步骤.xlsx
+++ b/用例步骤.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>基础查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,90 @@
   </si>
   <si>
     <t>重新关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改销售区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改成全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改参照，改为只参照北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉北京，不允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉除北京以外其他，可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改参照，只有北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改进价查看，一行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改参照，分别参照三个城市；北京10，石家庄20，呼和浩特30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改进价查看，3行数据；成本价都对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改售价类型查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改售价类型，初始化成区域，改成全国统一，北京主城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改售价查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改售价类型，改为区域，各自价格组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改进价，石家庄，对售价没影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改进价，北京，改为15，售价变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改进价，石家庄改为25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看售价，只有石家庄变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改售价类型查看，（初始化成区域）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成本，统一改成10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -708,6 +792,114 @@
         <v>15</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
